--- a/산출물/테이블 구성/테이블 구성.xlsx
+++ b/산출물/테이블 구성/테이블 구성.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\바탕 화면\산출물\테이블 구성\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>테이블 구성</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -199,6 +199,10 @@
   <si>
     <t>CHAR(1)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>범례</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -294,17 +298,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -314,6 +312,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -594,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,371 +613,346 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>

--- a/산출물/테이블 구성/테이블 구성.xlsx
+++ b/산출물/테이블 구성/테이블 구성.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\바탕 화면\산출물\테이블 구성\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>테이블 구성</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -134,10 +134,6 @@
   </si>
   <si>
     <t>외래키</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일업로드</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -203,6 +199,22 @@
   <si>
     <t>범례</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 게시물</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deletedBoard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -269,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -292,13 +304,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,13 +361,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -601,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -613,49 +671,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="1"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="4"/>
       <c r="K3" s="5" t="s">
         <v>11</v>
@@ -686,7 +744,9 @@
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
@@ -715,7 +775,9 @@
       <c r="H5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="J5" s="6"/>
       <c r="K5" s="5" t="s">
         <v>27</v>
@@ -746,7 +808,9 @@
       <c r="H6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -763,7 +827,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -775,56 +839,60 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="A9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="A10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -834,58 +902,60 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -893,12 +963,6 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -906,14 +970,14 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -921,14 +985,24 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -936,28 +1010,109 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
